--- a/S9_RPEPGPTsData.xlsx
+++ b/S9_RPEPGPTsData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tommy_w2/Desktop/RPEPExpSupport/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tommy_w2/Desktop/RPEPSupportingInformation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66CDB557-6A78-4945-9244-A7DFCE38CAA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03671678-49BB-8345-9BB2-39CD986AA26F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="680" windowWidth="30260" windowHeight="17900" activeTab="5" xr2:uid="{A5950750-1118-4543-80E9-D31D084F597A}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="17900" xr2:uid="{A5950750-1118-4543-80E9-D31D084F597A}"/>
   </bookViews>
   <sheets>
     <sheet name="RPEPExpPosition" sheetId="1" r:id="rId1"/>
@@ -13526,10 +13526,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Do not move the robot. Set the temperature of the temperature control platform to 37°C.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Use robot 1 to pick up bottle No.1 and open it, then move to the safe position.</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -13546,15 +13542,19 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Set the temperature of the temperature control platform to 37°C. Use robot 1 to pick up reagent bottle No. 2 and open the cap. Robot 2 picks up a pipette tip, then aspirates 100 μL of liquid from the reagent bottle placed at the desktop clamp, and dispenses 50 μL each along the wall into the second and third wells of the first row of the 96-well plate. Then move robot 2 to the safe position. Afterward, robot 1 screws the cap tightly back onto the bottle and returns the bottle to its original position.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Missing parameters</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Missing ExecuteAction</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Do not move the robot. Set the temperature of the temperature-controlled platform to 37°C.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set the temperature of the temperature-controlled platform to 37°C. Use robot 1 to pick up reagent bottle No. 2 and open the cap. Robot 2 picks up a pipette tip, then aspirates 100 μL of liquid from the reagent bottle placed at the desktop clamp, and dispenses 50 μL each along the wall into the second and third wells of the first row of the 96-well plate. Then move robot 2 to the safe position. Afterward, robot 1 screws the cap tightly back onto the bottle and returns the bottle to its original position.</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -14674,7 +14674,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE3A2983-FB41-9143-BFDF-A18E76F757BC}">
   <dimension ref="A1:D92"/>
   <sheetViews>
-    <sheetView zoomScale="89" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="89" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -14766,7 +14766,7 @@
         <v>1014</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="D6" s="13">
         <v>1</v>
@@ -14780,7 +14780,7 @@
         <v>1015</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="D7" s="13">
         <v>0.99</v>
@@ -14794,7 +14794,7 @@
         <v>1015</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="D8" s="13">
         <v>1</v>
@@ -14808,7 +14808,7 @@
         <v>1015</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D9" s="13">
         <v>0.99</v>
@@ -14822,7 +14822,7 @@
         <v>1015</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="D10" s="13">
         <v>1</v>
@@ -14836,7 +14836,7 @@
         <v>1015</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="D11" s="13">
         <v>0.95</v>
@@ -16295,7 +16295,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>349</v>
@@ -16345,7 +16345,7 @@
         <v>15</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>353</v>
@@ -16517,7 +16517,7 @@
         <v>15</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>22</v>
@@ -16943,7 +16943,7 @@
         <v>15</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>387</v>
@@ -19030,7 +19030,7 @@
         <v>15</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>820</v>
@@ -22320,7 +22320,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46CA25AF-D5CE-E745-B1A0-59864F2E13DE}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
